--- a/tables/table2-mice/bivariate-prob-se.xlsx
+++ b/tables/table2-mice/bivariate-prob-se.xlsx
@@ -32884,13 +32884,13 @@
         <v>-1.2635327140706507</v>
       </c>
       <c r="D3" s="53">
-        <v>0.23453543957373252</v>
+        <v>0.23453543957373232</v>
       </c>
       <c r="E3" s="56">
-        <v>-1.7339298414319511</v>
+        <v>-1.7339298414319506</v>
       </c>
       <c r="F3" s="59">
-        <v>-0.79313558670935036</v>
+        <v>-0.79313558670935069</v>
       </c>
     </row>
     <row r="4">
@@ -32904,13 +32904,13 @@
         <v>-1.3494763993323329</v>
       </c>
       <c r="D4" s="70">
-        <v>0.18829345046853077</v>
+        <v>0.18829345046853063</v>
       </c>
       <c r="E4" s="73">
-        <v>-1.7271280598332994</v>
+        <v>-1.7271280598332992</v>
       </c>
       <c r="F4" s="76">
-        <v>-0.97182473883136633</v>
+        <v>-0.97182473883136666</v>
       </c>
     </row>
     <row r="5">
@@ -32924,7 +32924,7 @@
         <v>-1.4660336435591292</v>
       </c>
       <c r="D5" s="87">
-        <v>0.2243110955751155</v>
+        <v>0.22431109557511542</v>
       </c>
       <c r="E5" s="90">
         <v>-1.9159242664243736</v>
@@ -32944,7 +32944,7 @@
         <v>-1.1003253270121411</v>
       </c>
       <c r="D6" s="104">
-        <v>0.20536478940953784</v>
+        <v>0.20536478940953787</v>
       </c>
       <c r="E6" s="107">
         <v>-1.512216200199497</v>
@@ -33024,13 +33024,13 @@
         <v>-0.12097558352746555</v>
       </c>
       <c r="D10" s="172">
-        <v>0.51032157344630569</v>
+        <v>0.5103215734463058</v>
       </c>
       <c r="E10" s="175">
-        <v>-1.1456770721759211</v>
+        <v>-1.1456770721759213</v>
       </c>
       <c r="F10" s="178">
-        <v>0.90372590512099005</v>
+        <v>0.90372590512099027</v>
       </c>
     </row>
     <row r="11">
@@ -33084,13 +33084,13 @@
         <v>-1.6872111082075616</v>
       </c>
       <c r="D13" s="223">
-        <v>0.28494961885340359</v>
+        <v>0.28494961885340353</v>
       </c>
       <c r="E13" s="226">
-        <v>-2.2587216756295039</v>
+        <v>-2.2587216756295034</v>
       </c>
       <c r="F13" s="229">
-        <v>-1.1157005407856193</v>
+        <v>-1.1157005407856198</v>
       </c>
     </row>
     <row r="14">
@@ -33104,13 +33104,13 @@
         <v>-1.38727967473276</v>
       </c>
       <c r="D14" s="240">
-        <v>0.24024068147153163</v>
+        <v>0.24024068147153155</v>
       </c>
       <c r="E14" s="243">
-        <v>-1.8691195478236768</v>
+        <v>-1.8691195478236766</v>
       </c>
       <c r="F14" s="246">
-        <v>-0.90543980164184323</v>
+        <v>-0.90543980164184346</v>
       </c>
     </row>
     <row r="15">
@@ -33124,7 +33124,7 @@
         <v>-1.1506580041196184</v>
       </c>
       <c r="D15" s="257">
-        <v>0.2120119993583795</v>
+        <v>0.21201199935837947</v>
       </c>
       <c r="E15" s="260">
         <v>-1.5758808857684057</v>
@@ -33164,13 +33164,13 @@
         <v>-1.0293284588933882</v>
       </c>
       <c r="D17" s="291">
-        <v>0.29054490648838249</v>
+        <v>0.29054490648838244</v>
       </c>
       <c r="E17" s="294">
         <v>-1.6122310176141528</v>
       </c>
       <c r="F17" s="297">
-        <v>-0.44642590017262351</v>
+        <v>-0.44642590017262362</v>
       </c>
     </row>
     <row r="18">
@@ -33184,13 +33184,13 @@
         <v>-1.1662487496685641</v>
       </c>
       <c r="D18" s="308">
-        <v>0.30883752261165515</v>
+        <v>0.30883752261165542</v>
       </c>
       <c r="E18" s="311">
-        <v>-1.7856702056410279</v>
+        <v>-1.7856702056410285</v>
       </c>
       <c r="F18" s="314">
-        <v>-0.54682729369610017</v>
+        <v>-0.54682729369609961</v>
       </c>
     </row>
     <row r="19">
@@ -33204,13 +33204,13 @@
         <v>-1.3761847892596428</v>
       </c>
       <c r="D19" s="325">
-        <v>0.2279119873150266</v>
+        <v>0.22791198731502635</v>
       </c>
       <c r="E19" s="328">
-        <v>-1.8332975578844868</v>
+        <v>-1.8332975578844861</v>
       </c>
       <c r="F19" s="331">
-        <v>-0.91907202063479887</v>
+        <v>-0.91907202063479942</v>
       </c>
     </row>
     <row r="20">
@@ -33224,13 +33224,13 @@
         <v>-1.1338770300819556</v>
       </c>
       <c r="D20" s="342">
-        <v>0.2499313192920776</v>
+        <v>0.24993131929207726</v>
       </c>
       <c r="E20" s="345">
-        <v>-1.6351529773174391</v>
+        <v>-1.6351529773174382</v>
       </c>
       <c r="F20" s="348">
-        <v>-0.63260108284647221</v>
+        <v>-0.63260108284647287</v>
       </c>
     </row>
     <row r="21">
@@ -33244,13 +33244,13 @@
         <v>-1.8159921641706291</v>
       </c>
       <c r="D21" s="359">
-        <v>0.25061237857957874</v>
+        <v>0.2506123785795788</v>
       </c>
       <c r="E21" s="362">
         <v>-2.3186409686392944</v>
       </c>
       <c r="F21" s="365">
-        <v>-1.3133433597019641</v>
+        <v>-1.3133433597019639</v>
       </c>
     </row>
     <row r="22">
@@ -33264,7 +33264,7 @@
         <v>-0.89522023383686622</v>
       </c>
       <c r="D22" s="376">
-        <v>0.18944650826188453</v>
+        <v>0.1894465082618845</v>
       </c>
       <c r="E22" s="379">
         <v>-1.2751923830158802</v>
@@ -33284,7 +33284,7 @@
         <v>-2.1187143461083187</v>
       </c>
       <c r="D23" s="393">
-        <v>0.31886477125919926</v>
+        <v>0.31886477125919932</v>
       </c>
       <c r="E23" s="396">
         <v>-2.758250014064723</v>
@@ -33304,13 +33304,13 @@
         <v>-1.4014413343045988</v>
       </c>
       <c r="D24" s="410">
-        <v>0.33911846722085348</v>
+        <v>0.33911846722085337</v>
       </c>
       <c r="E24" s="413">
-        <v>-2.0816008791347711</v>
+        <v>-2.0816008791347707</v>
       </c>
       <c r="F24" s="416">
-        <v>-0.72128178947442667</v>
+        <v>-0.72128178947442689</v>
       </c>
     </row>
     <row r="25">
@@ -33324,13 +33324,13 @@
         <v>-0.75208983500215365</v>
       </c>
       <c r="D25" s="427">
-        <v>0.19214617178467303</v>
+        <v>0.19214617178467291</v>
       </c>
       <c r="E25" s="430">
-        <v>-1.1374735784553025</v>
+        <v>-1.1374735784553023</v>
       </c>
       <c r="F25" s="433">
-        <v>-0.36670609154900485</v>
+        <v>-0.36670609154900508</v>
       </c>
     </row>
     <row r="26">
@@ -33344,13 +33344,13 @@
         <v>-1.044017146361504</v>
       </c>
       <c r="D26" s="444">
-        <v>0.20742525791123143</v>
+        <v>0.20742525791123151</v>
       </c>
       <c r="E26" s="447">
-        <v>-1.4600406080650203</v>
+        <v>-1.4600406080650206</v>
       </c>
       <c r="F26" s="450">
-        <v>-0.62799368465798755</v>
+        <v>-0.62799368465798744</v>
       </c>
     </row>
     <row r="27">
@@ -33364,13 +33364,13 @@
         <v>-1.4009362025485701</v>
       </c>
       <c r="D27" s="461">
-        <v>0.2320420746367603</v>
+        <v>0.23204207463676027</v>
       </c>
       <c r="E27" s="464">
-        <v>-1.8663325005855398</v>
+        <v>-1.8663325005855396</v>
       </c>
       <c r="F27" s="467">
-        <v>-0.93553990451160041</v>
+        <v>-0.93553990451160052</v>
       </c>
     </row>
     <row r="28">
@@ -33384,13 +33384,13 @@
         <v>-1.0919847253384567</v>
       </c>
       <c r="D28" s="478">
-        <v>0.18342806415616003</v>
+        <v>0.18342806415616</v>
       </c>
       <c r="E28" s="481">
-        <v>-1.4598781004860377</v>
+        <v>-1.4598781004860375</v>
       </c>
       <c r="F28" s="484">
-        <v>-0.72409135019087567</v>
+        <v>-0.72409135019087578</v>
       </c>
     </row>
     <row r="29">
@@ -33444,13 +33444,13 @@
         <v>-1.2642404104211298</v>
       </c>
       <c r="D31" s="529">
-        <v>0.27766521212823847</v>
+        <v>0.27766521212823858</v>
       </c>
       <c r="E31" s="532">
         <v>-1.8211409726162424</v>
       </c>
       <c r="F31" s="535">
-        <v>-0.70733984822601725</v>
+        <v>-0.70733984822601703</v>
       </c>
     </row>
     <row r="32">
@@ -33464,7 +33464,7 @@
         <v>-1.3699303176600699</v>
       </c>
       <c r="D32" s="546">
-        <v>0.20492210316822576</v>
+        <v>0.20492210316822573</v>
       </c>
       <c r="E32" s="549">
         <v>-1.7809752121040912</v>
@@ -33504,13 +33504,13 @@
         <v>-1.6984836067607509</v>
       </c>
       <c r="D34" s="580">
-        <v>0.44595905742595515</v>
+        <v>0.44595905742595365</v>
       </c>
       <c r="E34" s="583">
-        <v>-2.5929235255857828</v>
+        <v>-2.5929235255857801</v>
       </c>
       <c r="F34" s="586">
-        <v>-0.80404368793571901</v>
+        <v>-0.80404368793572201</v>
       </c>
     </row>
     <row r="35">
@@ -33524,13 +33524,13 @@
         <v>-1.1951735699630373</v>
       </c>
       <c r="D35" s="597">
-        <v>0.17066626879015256</v>
+        <v>0.17066626879015531</v>
       </c>
       <c r="E35" s="600">
-        <v>-1.5374711891299728</v>
+        <v>-1.5374711891299784</v>
       </c>
       <c r="F35" s="603">
-        <v>-0.85287595079610168</v>
+        <v>-0.85287595079609613</v>
       </c>
     </row>
     <row r="36">
@@ -33544,13 +33544,13 @@
         <v>-1.1988389736289955</v>
       </c>
       <c r="D36" s="614">
-        <v>0.18344361053159519</v>
+        <v>0.18344361053159516</v>
       </c>
       <c r="E36" s="617">
-        <v>-1.5667635294389057</v>
+        <v>-1.5667635294389055</v>
       </c>
       <c r="F36" s="620">
-        <v>-0.83091441781908526</v>
+        <v>-0.83091441781908537</v>
       </c>
     </row>
     <row r="37">
@@ -33564,13 +33564,13 @@
         <v>-1.3315255632845493</v>
       </c>
       <c r="D37" s="631">
-        <v>0.30124226717091956</v>
+        <v>0.30124226717091962</v>
       </c>
       <c r="E37" s="634">
         <v>-1.9357135588154235</v>
       </c>
       <c r="F37" s="637">
-        <v>-0.72733756775367508</v>
+        <v>-0.72733756775367497</v>
       </c>
     </row>
     <row r="38">
@@ -33584,13 +33584,13 @@
         <v>-1.387435360685717</v>
       </c>
       <c r="D38" s="648">
-        <v>0.26719204814413355</v>
+        <v>0.26719204814413361</v>
       </c>
       <c r="E38" s="651">
         <v>-1.9238141883255415</v>
       </c>
       <c r="F38" s="654">
-        <v>-0.85105653304589257</v>
+        <v>-0.85105653304589246</v>
       </c>
     </row>
     <row r="39">
@@ -33624,13 +33624,13 @@
         <v>-1.2422598386348458</v>
       </c>
       <c r="D40" s="682">
-        <v>0.15612314694899249</v>
+        <v>0.15612314694899251</v>
       </c>
       <c r="E40" s="685">
-        <v>-1.555389712065854</v>
+        <v>-1.5553897120658542</v>
       </c>
       <c r="F40" s="688">
-        <v>-0.92912996520383762</v>
+        <v>-0.9291299652038375</v>
       </c>
     </row>
     <row r="41">
@@ -33693,13 +33693,13 @@
         <v>1.6477619180765752</v>
       </c>
       <c r="D2" s="745">
-        <v>0.45145748748306036</v>
+        <v>0.4514574874830603</v>
       </c>
       <c r="E2" s="749">
-        <v>0.7422940466804514</v>
+        <v>0.74229404668045151</v>
       </c>
       <c r="F2" s="753">
-        <v>2.5532297894726992</v>
+        <v>2.5532297894726987</v>
       </c>
     </row>
     <row r="3">
@@ -33733,7 +33733,7 @@
         <v>1.7610219392702509</v>
       </c>
       <c r="D4" s="781">
-        <v>0.21744343014456291</v>
+        <v>0.21744343014456299</v>
       </c>
       <c r="E4" s="784">
         <v>1.3249054824588953</v>
@@ -33753,10 +33753,10 @@
         <v>2.0691796815212555</v>
       </c>
       <c r="D5" s="798">
-        <v>0.31476880486285846</v>
+        <v>0.31476880486285852</v>
       </c>
       <c r="E5" s="801">
-        <v>1.4378621209020652</v>
+        <v>1.437862120902065</v>
       </c>
       <c r="F5" s="804">
         <v>2.7004972421404458</v>
@@ -33773,10 +33773,10 @@
         <v>1.8450515182291536</v>
       </c>
       <c r="D6" s="815">
-        <v>0.18211294765351649</v>
+        <v>0.18211294765351638</v>
       </c>
       <c r="E6" s="818">
-        <v>1.4797958127920152</v>
+        <v>1.4797958127920154</v>
       </c>
       <c r="F6" s="821">
         <v>2.210307223666292</v>
@@ -33873,7 +33873,7 @@
         <v>1.9219297290775947</v>
       </c>
       <c r="D11" s="900">
-        <v>0.22411175028175015</v>
+        <v>0.22411175028175012</v>
       </c>
       <c r="E11" s="903">
         <v>1.4724389240544746</v>
@@ -33893,7 +33893,7 @@
         <v>1.939046161207473</v>
       </c>
       <c r="D12" s="917">
-        <v>0.31668733879143629</v>
+        <v>0.31668733879143635</v>
       </c>
       <c r="E12" s="920">
         <v>1.303880683828289</v>
@@ -33913,13 +33913,13 @@
         <v>1.940473343073609</v>
       </c>
       <c r="D13" s="934">
-        <v>0.27352209422123652</v>
+        <v>0.27352209422123658</v>
       </c>
       <c r="E13" s="937">
-        <v>1.3918824451463574</v>
+        <v>1.3918824451463572</v>
       </c>
       <c r="F13" s="940">
-        <v>2.4890642410008605</v>
+        <v>2.489064241000861</v>
       </c>
     </row>
     <row r="14">
@@ -33953,13 +33953,13 @@
         <v>1.757907448537702</v>
       </c>
       <c r="D15" s="968">
-        <v>0.17068124960294201</v>
+        <v>0.17068124960294218</v>
       </c>
       <c r="E15" s="971">
-        <v>1.4155797830318655</v>
+        <v>1.4155797830318653</v>
       </c>
       <c r="F15" s="974">
-        <v>2.1002351140435382</v>
+        <v>2.1002351140435387</v>
       </c>
     </row>
     <row r="16">
@@ -33993,10 +33993,10 @@
         <v>1.9128003883875415</v>
       </c>
       <c r="D17" s="1002">
-        <v>0.33808764826092913</v>
+        <v>0.33808764826092919</v>
       </c>
       <c r="E17" s="1005">
-        <v>1.234513327628153</v>
+        <v>1.2345133276281528</v>
       </c>
       <c r="F17" s="1008">
         <v>2.5910874491469302</v>
@@ -34033,7 +34033,7 @@
         <v>2.1013436416833184</v>
       </c>
       <c r="D19" s="1036">
-        <v>0.22992352327853946</v>
+        <v>0.2299235232785394</v>
       </c>
       <c r="E19" s="1039">
         <v>1.6401964263218103</v>
@@ -34113,13 +34113,13 @@
         <v>2.6215491572851994</v>
       </c>
       <c r="D23" s="1104">
-        <v>0.40095228596157628</v>
+        <v>0.40095228596157639</v>
       </c>
       <c r="E23" s="1107">
-        <v>1.816921387480956</v>
+        <v>1.8169213874809558</v>
       </c>
       <c r="F23" s="1110">
-        <v>3.4261769270894429</v>
+        <v>3.4261769270894433</v>
       </c>
     </row>
     <row r="24">
@@ -34173,7 +34173,7 @@
         <v>2.1160947518317972</v>
       </c>
       <c r="D26" s="1155">
-        <v>0.29019830320148932</v>
+        <v>0.29019830320148926</v>
       </c>
       <c r="E26" s="1158">
         <v>1.5340571355158668</v>
@@ -34233,10 +34233,10 @@
         <v>1.7554081266009327</v>
       </c>
       <c r="D29" s="1206">
-        <v>0.28773783093628758</v>
+        <v>0.28773783093628763</v>
       </c>
       <c r="E29" s="1209">
-        <v>1.1783053682647029</v>
+        <v>1.1783053682647027</v>
       </c>
       <c r="F29" s="1212">
         <v>2.3325108849371627</v>
@@ -34253,7 +34253,7 @@
         <v>2.1301334370157137</v>
       </c>
       <c r="D30" s="1223">
-        <v>0.17903269376400877</v>
+        <v>0.17903269376400874</v>
       </c>
       <c r="E30" s="1226">
         <v>1.7710556575406446</v>
@@ -34293,7 +34293,7 @@
         <v>1.8119136054849907</v>
       </c>
       <c r="D32" s="1257">
-        <v>0.18899093704907499</v>
+        <v>0.18899093704907496</v>
       </c>
       <c r="E32" s="1260">
         <v>1.4328604489362617</v>
@@ -34353,13 +34353,13 @@
         <v>1.9396138667627389</v>
       </c>
       <c r="D35" s="1308">
-        <v>0.16425411010005031</v>
+        <v>0.16425411010004878</v>
       </c>
       <c r="E35" s="1311">
-        <v>1.6101768243746943</v>
+        <v>1.6101768243746972</v>
       </c>
       <c r="F35" s="1314">
-        <v>2.2690509091507836</v>
+        <v>2.2690509091507804</v>
       </c>
     </row>
     <row r="36">
@@ -34453,10 +34453,10 @@
         <v>2.1189571936212603</v>
       </c>
       <c r="D40" s="1393">
-        <v>0.18872523423703305</v>
+        <v>0.18872523423703311</v>
       </c>
       <c r="E40" s="1396">
-        <v>1.7404390517514303</v>
+        <v>1.7404390517514301</v>
       </c>
       <c r="F40" s="1399">
         <v>2.4974753354910906</v>
@@ -34473,13 +34473,13 @@
         <v>1.3398659200954479</v>
       </c>
       <c r="D41" s="1414">
-        <v>0.39325099486543563</v>
+        <v>0.39325099486543574</v>
       </c>
       <c r="E41" s="1418">
-        <v>0.55113506204151708</v>
+        <v>0.55113506204151685</v>
       </c>
       <c r="F41" s="1422">
-        <v>2.1285967781493786</v>
+        <v>2.1285967781493791</v>
       </c>
     </row>
   </sheetData>
@@ -34542,13 +34542,13 @@
         <v>-0.047949238014730888</v>
       </c>
       <c r="D3" s="1475">
-        <v>0.20490106123640431</v>
+        <v>0.20490106123640447</v>
       </c>
       <c r="E3" s="1478">
-        <v>-0.45891003257126234</v>
+        <v>-0.45891003257126267</v>
       </c>
       <c r="F3" s="1481">
-        <v>0.36301155654180056</v>
+        <v>0.36301155654180089</v>
       </c>
     </row>
     <row r="4">
@@ -34562,13 +34562,13 @@
         <v>-0.0983504122692338</v>
       </c>
       <c r="D4" s="1492">
-        <v>0.14489783676308982</v>
+        <v>0.14489783676308965</v>
       </c>
       <c r="E4" s="1495">
-        <v>-0.3889654523591401</v>
+        <v>-0.38896545235913976</v>
       </c>
       <c r="F4" s="1498">
-        <v>0.1922646278206725</v>
+        <v>0.19226462782067216</v>
       </c>
     </row>
     <row r="5">
@@ -34582,13 +34582,13 @@
         <v>-0.22526821791659835</v>
       </c>
       <c r="D5" s="1509">
-        <v>0.1822875769778636</v>
+        <v>0.18228757697786363</v>
       </c>
       <c r="E5" s="1512">
-        <v>-0.59087416949425708</v>
+        <v>-0.5908741694942572</v>
       </c>
       <c r="F5" s="1515">
-        <v>0.14033773366106039</v>
+        <v>0.14033773366106045</v>
       </c>
     </row>
     <row r="6">
@@ -34602,13 +34602,13 @@
         <v>0.18997671812694789</v>
       </c>
       <c r="D6" s="1526">
-        <v>0.15434689798118911</v>
+        <v>0.15434689798118909</v>
       </c>
       <c r="E6" s="1529">
-        <v>-0.11958987683813382</v>
+        <v>-0.11958987683813377</v>
       </c>
       <c r="F6" s="1532">
-        <v>0.49954331309202959</v>
+        <v>0.49954331309202954</v>
       </c>
     </row>
     <row r="7">
@@ -34822,13 +34822,13 @@
         <v>-0.001768214054421572</v>
       </c>
       <c r="D17" s="1713">
-        <v>0.20913330081759732</v>
+        <v>0.20913330081759735</v>
       </c>
       <c r="E17" s="1716">
-        <v>-0.42134048484325126</v>
+        <v>-0.42134048484325132</v>
       </c>
       <c r="F17" s="1719">
-        <v>0.41780405673440812</v>
+        <v>0.41780405673440818</v>
       </c>
     </row>
     <row r="18">
@@ -34882,13 +34882,13 @@
         <v>-0.35613048691713234</v>
       </c>
       <c r="D20" s="1764">
-        <v>0.21611779793497493</v>
+        <v>0.21611779793497501</v>
       </c>
       <c r="E20" s="1767">
-        <v>-0.78958818314006185</v>
+        <v>-0.78958818314006196</v>
       </c>
       <c r="F20" s="1770">
-        <v>0.077327209305797173</v>
+        <v>0.07732720930579734</v>
       </c>
     </row>
     <row r="21">
@@ -34902,7 +34902,7 @@
         <v>1.3502030538351502</v>
       </c>
       <c r="D21" s="1781">
-        <v>0.21834251933677448</v>
+        <v>0.21834251933677451</v>
       </c>
       <c r="E21" s="1784">
         <v>0.91209225278911443</v>
@@ -34942,13 +34942,13 @@
         <v>0.24949764977806171</v>
       </c>
       <c r="D23" s="1815">
-        <v>0.22108845384846318</v>
+        <v>0.2210884538484631</v>
       </c>
       <c r="E23" s="1818">
-        <v>-0.19392946627777646</v>
+        <v>-0.1939294662777763</v>
       </c>
       <c r="F23" s="1821">
-        <v>0.69292476583389995</v>
+        <v>0.69292476583389973</v>
       </c>
     </row>
     <row r="24">
@@ -35002,13 +35002,13 @@
         <v>0.017537434869474573</v>
       </c>
       <c r="D26" s="1866">
-        <v>0.18469461038223789</v>
+        <v>0.18469461038223792</v>
       </c>
       <c r="E26" s="1869">
-        <v>-0.35289619478079542</v>
+        <v>-0.35289619478079548</v>
       </c>
       <c r="F26" s="1872">
-        <v>0.38797106451974456</v>
+        <v>0.38797106451974461</v>
       </c>
     </row>
     <row r="27">
@@ -35062,13 +35062,13 @@
         <v>-0.094435385542649714</v>
       </c>
       <c r="D29" s="1917">
-        <v>0.18912974965240376</v>
+        <v>0.18912974965240381</v>
       </c>
       <c r="E29" s="1920">
-        <v>-0.47376437350603917</v>
+        <v>-0.47376437350603928</v>
       </c>
       <c r="F29" s="1923">
-        <v>0.28489360242073969</v>
+        <v>0.2848936024207398</v>
       </c>
     </row>
     <row r="30">
